--- a/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_disputa_2023.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_disputa_2023.xlsx
@@ -34,7 +34,7 @@
     <t>taxa_sucesso</t>
   </si>
   <si>
-    <t>valor_sucesso</t>
+    <t>arrecadado_sucesso</t>
   </si>
   <si>
     <t>media_sucesso</t>

--- a/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_disputa_2023.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_disputa_2023.xlsx
@@ -483,10 +483,10 @@
         <v>585</v>
       </c>
       <c r="E2" s="1">
-        <v>0.700374531835206</v>
+        <v>70.0374531835206</v>
       </c>
       <c r="F2" s="1">
-        <v>0.6256684491978609</v>
+        <v>62.56684491978609</v>
       </c>
       <c r="G2" s="2">
         <v>17530337.94813802</v>
@@ -518,10 +518,10 @@
         <v>245</v>
       </c>
       <c r="E3" s="1">
-        <v>0.299625468164794</v>
+        <v>29.9625468164794</v>
       </c>
       <c r="F3" s="1">
-        <v>0.6125</v>
+        <v>61.25000000000001</v>
       </c>
       <c r="G3" s="2">
         <v>6532941.879185004</v>
@@ -553,10 +553,10 @@
         <v>837</v>
       </c>
       <c r="E4" s="1">
-        <v>0.6130790190735694</v>
+        <v>61.30790190735694</v>
       </c>
       <c r="F4" s="1">
-        <v>0.93</v>
+        <v>93</v>
       </c>
       <c r="G4" s="2">
         <v>10673965.92393566</v>
@@ -588,10 +588,10 @@
         <v>546</v>
       </c>
       <c r="E5" s="1">
-        <v>0.3869209809264305</v>
+        <v>38.69209809264305</v>
       </c>
       <c r="F5" s="1">
-        <v>0.9612676056338029</v>
+        <v>96.12676056338029</v>
       </c>
       <c r="G5" s="2">
         <v>7688166.013623439</v>
@@ -623,10 +623,10 @@
         <v>130</v>
       </c>
       <c r="E6" s="1">
-        <v>0.9093567251461988</v>
+        <v>90.93567251461988</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2090032154340836</v>
+        <v>20.90032154340836</v>
       </c>
       <c r="G6" s="2">
         <v>34215.34230895688</v>
@@ -658,10 +658,10 @@
         <v>22</v>
       </c>
       <c r="E7" s="1">
-        <v>0.09064327485380116</v>
+        <v>9.064327485380117</v>
       </c>
       <c r="F7" s="1">
-        <v>0.3548387096774194</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="G7" s="2">
         <v>8971.61544582792</v>

--- a/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_disputa_2023.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_disputa_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>geral_modalidade</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>max_sucesso</t>
+  </si>
+  <si>
+    <t>apoio_medio</t>
+  </si>
+  <si>
+    <t>contribuicoes</t>
+  </si>
+  <si>
+    <t>media_contribuicoes</t>
   </si>
   <si>
     <t>aon</t>
@@ -419,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +443,7 @@
     <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -468,10 +477,19 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -503,10 +521,19 @@
       <c r="K2" s="2">
         <v>679297.6600721752</v>
       </c>
+      <c r="L2">
+        <v>90.81853194977892</v>
+      </c>
+      <c r="M2">
+        <v>193026</v>
+      </c>
+      <c r="N2">
+        <v>329.9589743589743</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -538,10 +565,19 @@
       <c r="K3" s="2">
         <v>163173.270269744</v>
       </c>
+      <c r="L3">
+        <v>92.63036679831843</v>
+      </c>
+      <c r="M3">
+        <v>70527</v>
+      </c>
+      <c r="N3">
+        <v>287.865306122449</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -573,10 +609,19 @@
       <c r="K4" s="2">
         <v>708972.7845446636</v>
       </c>
+      <c r="L4">
+        <v>84.63408307975531</v>
+      </c>
+      <c r="M4">
+        <v>126119</v>
+      </c>
+      <c r="N4">
+        <v>150.6798088410992</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -608,10 +653,19 @@
       <c r="K5" s="2">
         <v>133707.589878108</v>
       </c>
+      <c r="L5">
+        <v>99.16759340131101</v>
+      </c>
+      <c r="M5">
+        <v>77527</v>
+      </c>
+      <c r="N5">
+        <v>141.9908424908425</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -643,10 +697,19 @@
       <c r="K6" s="2">
         <v>3475.049171548047</v>
       </c>
+      <c r="L6">
+        <v>18.15137523021585</v>
+      </c>
+      <c r="M6">
+        <v>1885</v>
+      </c>
+      <c r="N6">
+        <v>14.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -677,6 +740,15 @@
       </c>
       <c r="K7" s="2">
         <v>5087.076865717208</v>
+      </c>
+      <c r="L7">
+        <v>27.77589921308953</v>
+      </c>
+      <c r="M7">
+        <v>323</v>
+      </c>
+      <c r="N7">
+        <v>14.68181818181818</v>
       </c>
     </row>
   </sheetData>
